--- a/AAII_Financials/Quarterly/AFIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFIN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>AFIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,206 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>76200</v>
+      </c>
+      <c r="F8" s="3">
         <v>72900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>79100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>71500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>75100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>74900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>71100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>70100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>72400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>69700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>71600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>57200</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18900</v>
+        <v>19200</v>
       </c>
       <c r="E9" s="3">
-        <v>19500</v>
+        <v>21100</v>
       </c>
       <c r="F9" s="3">
         <v>18900</v>
       </c>
       <c r="G9" s="3">
+        <v>19500</v>
+      </c>
+      <c r="H9" s="3">
+        <v>18900</v>
+      </c>
+      <c r="I9" s="3">
         <v>19900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>19300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>19000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>19000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>18300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>16000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>17400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>55100</v>
+      </c>
+      <c r="F10" s="3">
         <v>54000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>59600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>52600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>55200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>55600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>52100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>51100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>54100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>53700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>54200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -939,75 +978,87 @@
         <v>500</v>
       </c>
       <c r="E14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>500</v>
+      </c>
+      <c r="G14" s="3">
         <v>3500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>1700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>12200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>2400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>9900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>2300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>12700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>8800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>3600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>31800</v>
+      </c>
+      <c r="F15" s="3">
         <v>29900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>30900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>32100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>32600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>35300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>35400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>36500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>41000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>41100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>40400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>63500</v>
+      </c>
+      <c r="F17" s="3">
         <v>56100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>63600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>61700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>74000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>86500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>70800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>63200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>77400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>70900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>66700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F18" s="3">
         <v>16800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>15500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>9800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-11600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>6900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-5000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>4900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,160 +1176,186 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>15000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>5500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>3700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>24700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>8700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>49000</v>
+      </c>
+      <c r="F21" s="3">
         <v>48200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>61100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>47000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>36400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>24800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>39200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>67900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>36800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>40100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>54000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>36500</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F22" s="3">
         <v>18600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>22000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>18400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>17600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>17000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>16000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>16100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>15400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>14500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>14600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>8500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-13500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-27300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-12100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>15400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-19400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-15400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>8500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-13500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-27300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-12100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>15400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-19400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-15400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>7900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-13500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-27200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-12000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>15400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-19400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-15400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-15000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-5500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-3700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-24700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-8700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>7900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-13500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-27200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-12000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>15400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-19400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-15400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>7900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-13500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-27200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-12000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>15400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-19400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-15400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1965,54 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>175700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>81900</v>
+      </c>
+      <c r="F41" s="3">
         <v>76800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>91200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>108000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>91500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>60300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>58900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>71300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>107700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>68500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>56100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,28 +2049,34 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>49300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>47000</v>
+      </c>
+      <c r="F43" s="3">
         <v>44300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>41500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>40000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>37900</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>8</v>
@@ -1908,8 +2093,14 @@
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,46 +2137,58 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>19200</v>
+      </c>
+      <c r="F45" s="3">
         <v>21300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>16000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>18400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>19400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>63500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>55700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>55600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>50900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>53100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>44900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2022,8 +2225,14 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2052,92 +2261,110 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>17200</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>17200</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
         <v>17200</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>17200</v>
+      </c>
+      <c r="P47" s="3">
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2910100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2857300</v>
+      </c>
+      <c r="F48" s="3">
         <v>2824300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2705700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3110500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3030200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2790400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2760900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2777300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2799900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2817800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2826500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2794200</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>448600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>448200</v>
+      </c>
+      <c r="F49" s="3">
         <v>443500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>419400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>272200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>285100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>282600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>293700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>304400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>315600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>335600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>344400</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2445,58 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>36600</v>
+      </c>
+      <c r="F52" s="3">
         <v>46800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>40100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>88700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>78900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>64000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>35400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>38200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>33200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>28500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>25500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>131800</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3646100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3490200</v>
+      </c>
+      <c r="F54" s="3">
         <v>3457100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3313900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3368500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3262500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3264100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3194500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3236900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3296700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3301600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3306100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3377200</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,122 +2617,142 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>26800</v>
+      </c>
+      <c r="F57" s="3">
         <v>28500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>27700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>26800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>28400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>38000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>33000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>27800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>27400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>29800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>30700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3">
+        <v>333100</v>
+      </c>
+      <c r="F58" s="3">
         <v>317700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>257700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>432700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>324700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>260700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>132300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>70000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>95000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>260000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>230000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>190000</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>22600</v>
+      </c>
+      <c r="F59" s="3">
         <v>22100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>20000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>19400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>9800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>11200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>11600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>11600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>11200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>14200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2510,46 +2789,58 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1792700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1310900</v>
+      </c>
+      <c r="F61" s="3">
         <v>1309900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1313500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1184200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1196100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1212100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1224500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1292600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1303400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1094800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1078000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1162900</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2877,14 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1982000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1806900</v>
+      </c>
+      <c r="F66" s="3">
         <v>1787400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1725300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1771700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1661100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1628800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1519000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1523900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1560100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1523700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1484200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1528800</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2839,10 +3174,10 @@
         <v>100</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-972000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-932900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-898500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-866200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-844800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-812000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-778900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-722200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-676200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-657900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-604100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-554500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-510600</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1664000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1683300</v>
+      </c>
+      <c r="F76" s="3">
         <v>1669600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1588700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1596800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1601400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1635300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1675500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1713100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1736500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1777900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1821900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1848400</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>7900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-13500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-27200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-12000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>15400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-19400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-15400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,46 +3626,54 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>31400</v>
+      </c>
+      <c r="F83" s="3">
         <v>29500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>30500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>31800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>32300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>35100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>35200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>36300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>40800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>41000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>40400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>27400</v>
+      </c>
+      <c r="F89" s="3">
         <v>26600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>31200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>20400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>21300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>17000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>32600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>24100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>28000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>23000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>33000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3952,54 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-5300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-2600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-4900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-4600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +4080,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-65500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-181200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-54900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-109900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-24900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-109800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-28900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-24700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-12300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-31300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-33200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,46 +4146,54 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-29400</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-29200</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-29200</v>
       </c>
       <c r="G96" s="3">
         <v>-29200</v>
       </c>
       <c r="H96" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="J96" s="3">
         <v>-30700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-23000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-21900</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4318,58 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>135500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>34900</v>
+      </c>
+      <c r="F100" s="3">
         <v>141600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>6800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>106300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>32900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>91600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-13600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-35400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>35100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>20700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>11700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-152700</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4406,54 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>94100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-13000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-16900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>16800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>29300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-11000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-37700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>50800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>12500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>11500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-86600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>AFIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,162 +665,172 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>74900</v>
+      </c>
+      <c r="E8" s="3">
         <v>74600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>76200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>72900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>79100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>71500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>75100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>74900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>71100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>70100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>72400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>69700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>71600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>57200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E9" s="3">
         <v>19200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>21100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>18900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>19500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>18900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>19900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>19300</v>
-      </c>
-      <c r="K9" s="3">
-        <v>19000</v>
       </c>
       <c r="L9" s="3">
         <v>19000</v>
       </c>
       <c r="M9" s="3">
+        <v>19000</v>
+      </c>
+      <c r="N9" s="3">
         <v>18300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>17400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,43 +838,46 @@
         <v>55400</v>
       </c>
       <c r="E10" s="3">
+        <v>55400</v>
+      </c>
+      <c r="F10" s="3">
         <v>55100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>54000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>59600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>52600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>55200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>55600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>52100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>51100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>54100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>53700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>54200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +986,105 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E14" s="3">
         <v>500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>12200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>9900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>12700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>34300</v>
+        <v>34800</v>
       </c>
       <c r="E15" s="3">
+        <v>33900</v>
+      </c>
+      <c r="F15" s="3">
         <v>31800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>29900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>30900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>32100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>32600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>35300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>35400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>36500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>41000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>41100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>40400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>62500</v>
+        <v>74400</v>
       </c>
       <c r="E17" s="3">
+        <v>61100</v>
+      </c>
+      <c r="F17" s="3">
         <v>63500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>56100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>63600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>61700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>74000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>86500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>70800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>63200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>77400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>70900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>66700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12100</v>
+        <v>500</v>
       </c>
       <c r="E18" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F18" s="3">
         <v>12700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>16800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>15500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,184 +1211,197 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>4900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>15000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>24700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>8700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E21" s="3">
         <v>47500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>49000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>48200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>61100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>47000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>36400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>24800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>39200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>67900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>36800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>40100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>54000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>36500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E22" s="3">
         <v>19100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>19000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>18600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>22000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>18400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>17600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>17000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>14500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>14600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-27300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>15400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-19400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-15400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-27300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>15400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-19400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>7900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-27200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>15400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-19400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-15400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1500</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-4900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-15000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-24700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-8700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>7900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-27200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>15400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-19400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-15400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>7900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-27200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>15400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-19400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-15400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>136700</v>
+      </c>
+      <c r="E41" s="3">
         <v>175700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>81900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>76800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>91200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>108000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>91500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>60300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>58900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>71300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>107700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>68500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>56100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,31 +2145,34 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E43" s="3">
         <v>49300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>47000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>44300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>41500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>40000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>37900</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>8</v>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,52 +2239,58 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E45" s="3">
         <v>20100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>63500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>55700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>55600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>50900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>53100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>44900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2267,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <v>17200</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3">
         <v>17200</v>
@@ -2275,96 +2380,105 @@
       <c r="P47" s="3">
         <v>17200</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2910100</v>
+        <v>3326800</v>
       </c>
       <c r="E48" s="3">
-        <v>2857300</v>
+        <v>3358800</v>
       </c>
       <c r="F48" s="3">
-        <v>2824300</v>
+        <v>3305500</v>
       </c>
       <c r="G48" s="3">
-        <v>2705700</v>
+        <v>3267800</v>
       </c>
       <c r="H48" s="3">
+        <v>3125100</v>
+      </c>
+      <c r="I48" s="3">
         <v>3110500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3030200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2790400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2760900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2777300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2799900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2817800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2826500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2794200</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>448600</v>
-      </c>
-      <c r="E49" s="3">
-        <v>448200</v>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F49" s="3">
-        <v>443500</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>419400</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
         <v>1600</v>
       </c>
-      <c r="I49" s="3">
-        <v>272200</v>
-      </c>
       <c r="J49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K49" s="3">
         <v>285100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>282600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>293700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>304400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>315600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>335600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>344400</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E52" s="3">
         <v>41100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>36600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>46800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>40100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>88700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>78900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>64000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>35400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>38200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>33200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>28500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>25500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>131800</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3596500</v>
+      </c>
+      <c r="E54" s="3">
         <v>3646100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3490200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3457100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3313900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3368500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3262500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3264100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3194500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3236900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3296700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3301600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3306100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3377200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,96 +2749,103 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E57" s="3">
         <v>53300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>26800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>28500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>27700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>26800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>28400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>38000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>27800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>27400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>29800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>30700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
-        <v>333100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>317700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>257700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>432700</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3">
         <v>324700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>260700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>132300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>70000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>95000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>260000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>230000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>190000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2716,43 +2853,46 @@
         <v>22900</v>
       </c>
       <c r="E59" s="3">
+        <v>22900</v>
+      </c>
+      <c r="F59" s="3">
         <v>22600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>22100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>20000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>11600</v>
       </c>
       <c r="M59" s="3">
         <v>11600</v>
       </c>
       <c r="N59" s="3">
+        <v>11600</v>
+      </c>
+      <c r="O59" s="3">
         <v>11200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,52 +2935,58 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1808300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1792700</v>
       </c>
-      <c r="E61" s="3">
-        <v>1310900</v>
-      </c>
       <c r="F61" s="3">
-        <v>1309900</v>
+        <v>1644100</v>
       </c>
       <c r="G61" s="3">
-        <v>1313500</v>
+        <v>1627600</v>
       </c>
       <c r="H61" s="3">
-        <v>1184200</v>
+        <v>1571200</v>
       </c>
       <c r="I61" s="3">
+        <v>1616900</v>
+      </c>
+      <c r="J61" s="3">
         <v>1196100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1212100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1224500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1292600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1303400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1094800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1078000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1162900</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1977200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1982000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1806900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1787400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1725300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1771700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1661100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1628800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1519000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1523900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1560100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1523700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1484200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1528800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3180,7 +3348,7 @@
         <v>100</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1017000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-972000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-932900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-898500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-866200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-844800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-812000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-778900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-722200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-676200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-657900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-604100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-554500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-510600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1619300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1664000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1683300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1669600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1588700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1596800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1601400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1635300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1675500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1713100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1736500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1777900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1821900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1848400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>7900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-27200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>15400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-19400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-15400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E83" s="3">
         <v>33900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>31400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>29500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>30500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>31800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>32300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>35100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>35200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>36300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>40800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>41000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>40400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E89" s="3">
         <v>24100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>27400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>26600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>31200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>20400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>21300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>17000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>32600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>24100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>28000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>23000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>33000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-65500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-58900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-181200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-54900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-109900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-24900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-109800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-28900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-24700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-31300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-33200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,22 +4381,23 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-29800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-29300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-29400</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-29200</v>
       </c>
       <c r="H96" s="3">
         <v>-29200</v>
@@ -4172,17 +4406,17 @@
         <v>-29200</v>
       </c>
       <c r="J96" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-30700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-23000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-21900</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="E100" s="3">
         <v>135500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>34900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>141600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>106300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>32900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>91600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-13600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-35400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>35100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>20700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>11700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-152700</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="E102" s="3">
         <v>94100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-16900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>29300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-37700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>50800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-86600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>AFIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E8" s="3">
         <v>74900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>74600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>76200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>72900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>79100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>71500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>75100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>74900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>71100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>70100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>72400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>69700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>71600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>57200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E9" s="3">
         <v>19500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>19200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>21100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>18900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>19500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>18900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>19900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19300</v>
-      </c>
-      <c r="L9" s="3">
-        <v>19000</v>
       </c>
       <c r="M9" s="3">
         <v>19000</v>
       </c>
       <c r="N9" s="3">
+        <v>19000</v>
+      </c>
+      <c r="O9" s="3">
         <v>18300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>16000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>17400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>55400</v>
+        <v>57400</v>
       </c>
       <c r="E10" s="3">
         <v>55400</v>
       </c>
       <c r="F10" s="3">
+        <v>55400</v>
+      </c>
+      <c r="G10" s="3">
         <v>55100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>54000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>59600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>52600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>55200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>55600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>52100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>51100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>54100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>53700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>54200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,102 +1006,111 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E14" s="3">
         <v>12200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>12200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>9900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>12700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E15" s="3">
         <v>34800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>33900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>31800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>29900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>30900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>32100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>32600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>35300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>35400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>36500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>41000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>41100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>40400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E17" s="3">
         <v>74400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>61100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>63500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>56100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>63600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>61700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>74000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>86500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>70800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>63200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>77400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>70900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>66700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E18" s="3">
         <v>500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>13500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>12700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>16800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>15500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,196 +1245,209 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>4900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>15000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>24700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>8700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E21" s="3">
         <v>35400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>47500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>49000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>48200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>61100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>47000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>36400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>24800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>39200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>67900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>36800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>40100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>54000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>36500</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E22" s="3">
         <v>18800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>19100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>19000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>18600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>22000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>18400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>17600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>14500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>14600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-18200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-27300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>15400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-19400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-15400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-18200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-27300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>15400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-19400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-15400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-21800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>7900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-27200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>15400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-19400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-15400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-4900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-15000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-24700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-21800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-27200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>15400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-19400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-15400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-21800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-27200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>15400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-19400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-15400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>86300</v>
+      </c>
+      <c r="E41" s="3">
         <v>136700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>175700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>81900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>76800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>91200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>108000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>91500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>60300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>58900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>71300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>107700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>68500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>56100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,34 +2238,37 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E43" s="3">
         <v>54700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>49300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>47000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>44300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>41500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>40000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>37900</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>8</v>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,55 +2338,61 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E45" s="3">
         <v>39800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>20100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>18400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>63500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>55700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>55600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>50900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>53100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>44900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2375,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
-        <v>17200</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3">
         <v>17200</v>
@@ -2383,55 +2488,61 @@
       <c r="Q47" s="3">
         <v>17200</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3357200</v>
+      </c>
+      <c r="E48" s="3">
         <v>3326800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3358800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3305500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3267800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3125100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3110500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3030200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2790400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2760900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2777300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2799900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2817800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2826500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2794200</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2441,8 +2552,8 @@
       <c r="E49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -2451,34 +2562,37 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>1600</v>
       </c>
       <c r="K49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L49" s="3">
         <v>285100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>282600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>293700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>304400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>315600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>335600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>344400</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E52" s="3">
         <v>36200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>41100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>36600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>46800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>40100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>88700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>78900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>64000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>35400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>38200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>33200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>28500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>25500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>131800</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3564200</v>
+      </c>
+      <c r="E54" s="3">
         <v>3596500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3646100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3490200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3457100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3313900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3368500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3262500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3264100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3194500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3236900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3296700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3301600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3306100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3377200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +2880,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E57" s="3">
         <v>32300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>53300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>26800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>28500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>27700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>26800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>28400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>38000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>27800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>27400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>29800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>30700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2820,32 +2954,35 @@
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
         <v>324700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>260700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>132300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>70000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>95000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>260000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>230000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>190000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2856,43 +2993,46 @@
         <v>22900</v>
       </c>
       <c r="F59" s="3">
+        <v>22900</v>
+      </c>
+      <c r="G59" s="3">
         <v>22600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>22100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>20000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>11600</v>
       </c>
       <c r="N59" s="3">
         <v>11600</v>
       </c>
       <c r="O59" s="3">
+        <v>11600</v>
+      </c>
+      <c r="P59" s="3">
         <v>11200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,55 +3078,61 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1800800</v>
+      </c>
+      <c r="E61" s="3">
         <v>1808300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1792700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1644100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1627600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1571200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1616900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1196100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1212100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1224500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1292600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1303400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1094800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1078000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1162900</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1975600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1977200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1982000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1806900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1787400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1725300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1771700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1661100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1628800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1519000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1523900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1560100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1523700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1484200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1528800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3351,7 +3519,7 @@
         <v>100</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1047200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1017000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-972000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-932900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-898500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-866200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-844800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-812000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-778900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-722200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-676200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-657900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-604100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-554500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-510600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1588600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1619300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1664000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1683300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1669600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1588700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1596800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1601400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1635300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1675500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1713100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1736500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1777900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1821900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1848400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-21800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-27200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>15400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-19400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-15400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E83" s="3">
         <v>34800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>33900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>31400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>29500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>30500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>31800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>32300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>35100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>35200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>36300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>40800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>41000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>40400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E89" s="3">
         <v>25200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>24100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>27400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>26600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>31200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>20400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>21300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>17000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>32600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>24100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>28000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>23000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>33000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-58300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-36200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-65500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-58900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-181200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-54900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-109900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-24900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-109800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-28900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-24700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-31300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-33200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4391,16 +4625,16 @@
         <v>-23100</v>
       </c>
       <c r="E96" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="F96" s="3">
         <v>-29800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-29300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-29400</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-29200</v>
       </c>
       <c r="I96" s="3">
         <v>-29200</v>
@@ -4409,17 +4643,17 @@
         <v>-29200</v>
       </c>
       <c r="K96" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="L96" s="3">
         <v>-30700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-23000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-21900</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-26100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>135500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>34900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>141600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>106300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>32900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>91600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-13600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-35400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>35100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>20700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>11700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-152700</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-57300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-37100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>94100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-13000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-16900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>16800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>29300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-11000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-37700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>50800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>12500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-86600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>AFIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,244 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>77200</v>
+      </c>
+      <c r="E8" s="3">
         <v>78500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>74900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>74600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>76200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>72900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>79100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>71500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>75100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>74900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>71100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>70100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>72400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>69700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>71600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>57200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E9" s="3">
         <v>21100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>19500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>19200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>21100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>18900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>19500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>18900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19300</v>
-      </c>
-      <c r="M9" s="3">
-        <v>19000</v>
       </c>
       <c r="N9" s="3">
         <v>19000</v>
       </c>
       <c r="O9" s="3">
+        <v>19000</v>
+      </c>
+      <c r="P9" s="3">
         <v>18300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>16000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>17400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E10" s="3">
         <v>57400</v>
-      </c>
-      <c r="E10" s="3">
-        <v>55400</v>
       </c>
       <c r="F10" s="3">
         <v>55400</v>
       </c>
       <c r="G10" s="3">
+        <v>55400</v>
+      </c>
+      <c r="H10" s="3">
         <v>55100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>54000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>59600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>52600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>55200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>55600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>52100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>51100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>54100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>53700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>54200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,108 +1025,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E14" s="3">
         <v>1500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>12200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>9900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>12700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>8800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E15" s="3">
         <v>34300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>34800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>33900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>31800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>29900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>30900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>32100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>32600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>35300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>35400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>36500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>41000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>41100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>40400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E17" s="3">
         <v>62000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>74400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>61100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>63500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>56100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>63600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>61700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>74000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>86500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>70800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>63200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>77400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>70900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>66700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E18" s="3">
         <v>16500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>13500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>12700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>16800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>15500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-11600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,208 +1278,221 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>4900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>15000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>24700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>8700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E21" s="3">
         <v>51700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>35400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>47500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>49000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>48200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>61100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>47000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>36400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>24800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>39200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>67900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>36800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>40100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>54000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>36500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E22" s="3">
         <v>20900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>18800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>19100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>19000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>18600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>22000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>18400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>16100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>14500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>14600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-18200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-27300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>15400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-19400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-18200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-27300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>15400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-19400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-21800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-27200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>15400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-19400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-4900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-15000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-24700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-8700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-21800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-27200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-12000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>15400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-19400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-21800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-27200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-12000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>15400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-19400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>102900</v>
+      </c>
+      <c r="E41" s="3">
         <v>86300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>136700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>175700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>81900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>76800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>91200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>108000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>91500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>60300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>58900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>71300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>107700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>68500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>56100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,37 +2330,40 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E43" s="3">
         <v>62500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>54700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>49300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>47000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>44300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>41500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>40000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>37900</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>8</v>
@@ -2291,8 +2383,11 @@
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,58 +2436,64 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E45" s="3">
         <v>26200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>39800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>20100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>18400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>63500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>55700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>55600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>50900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>53100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>44900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2441,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2483,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
-        <v>17200</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="3">
         <v>17200</v>
@@ -2491,58 +2595,64 @@
       <c r="R47" s="3">
         <v>17200</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3387200</v>
+      </c>
+      <c r="E48" s="3">
         <v>3357200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3326800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3358800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3305500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3267800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3125100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3110500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3030200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2790400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2760900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2777300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2799900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2817800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2826500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2794200</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2555,8 +2665,8 @@
       <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -2565,34 +2675,37 @@
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
         <v>1600</v>
       </c>
       <c r="L49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M49" s="3">
         <v>285100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>282600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>293700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>304400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>315600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>335600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>344400</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E52" s="3">
         <v>30300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>36200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>41100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>36600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>46800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>40100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>88700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>78900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>64000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>35400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>38200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>33200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>28500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>25500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>131800</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3608000</v>
+      </c>
+      <c r="E54" s="3">
         <v>3564200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3596500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3646100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3490200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3457100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3313900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3368500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3262500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3264100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3194500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3236900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3296700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3301600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3306100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3377200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,108 +3010,115 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E57" s="3">
         <v>35500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>53300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>26800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>28500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>27700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>26800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>28400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>38000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>33000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>27800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>27400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>29800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>30700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>324700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>260700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>132300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>70000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>95000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>260000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>230000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>190000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2996,43 +3132,46 @@
         <v>22900</v>
       </c>
       <c r="G59" s="3">
+        <v>22900</v>
+      </c>
+      <c r="H59" s="3">
         <v>22600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>22100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>20000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>11600</v>
       </c>
       <c r="O59" s="3">
         <v>11600</v>
       </c>
       <c r="P59" s="3">
+        <v>11600</v>
+      </c>
+      <c r="Q59" s="3">
         <v>11200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3081,58 +3220,64 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1771700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1800800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1808300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1792700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1644100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1627600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1571200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1616900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1196100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1212100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1224500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1292600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1303400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1094800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1078000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1162900</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1938900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1975600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1977200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1982000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1806900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1787400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1725300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1771700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1661100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1628800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1519000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1523900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1560100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1523700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1484200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1528800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3522,7 +3689,7 @@
         <v>100</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1055700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1047200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1017000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-972000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-932900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-898500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-866200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-844800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-812000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-778900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-722200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-676200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-657900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-604100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-554500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-510600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1669000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1588600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1619300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1664000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1683300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1669600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1588700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1596800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1601400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1635300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1675500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1713100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1736500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1777900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1821900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1848400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-21800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-27200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-12000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>15400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-19400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E83" s="3">
         <v>34300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>34800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>33900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>31400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>29500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>30500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>31800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>32300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>35100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>35200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>36300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>40800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>41000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>40400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E89" s="3">
         <v>20600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>25200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>24100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>27400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>26600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>31200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>20400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>21300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>17000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>32600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>24100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>28000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>23000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>33000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-62900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-58300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-36200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-65500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-58900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-181200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-54900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-109900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-24900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-109800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-28900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-24700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-31300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-33200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,28 +4848,29 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-23100</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>-23100</v>
       </c>
       <c r="F96" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="G96" s="3">
         <v>-29800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-29300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-29400</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-29200</v>
       </c>
       <c r="J96" s="3">
         <v>-29200</v>
@@ -4646,17 +4879,17 @@
         <v>-29200</v>
       </c>
       <c r="L96" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="M96" s="3">
         <v>-30700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-23000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-21900</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-19500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-26100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>135500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>34900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>141600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>106300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>32900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>91600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-13600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-35400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>35100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>20700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>11700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-152700</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-57300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-37100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>94100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-13000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-16900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>16800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>29300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-37700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>50800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>12500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-86600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>AFIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>79200</v>
+      </c>
+      <c r="E8" s="3">
         <v>77200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>78500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>74900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>74600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>76200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>72900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>79100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>71500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>75100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>74900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>71100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>70100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>72400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>69700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>71600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>57200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E9" s="3">
         <v>20300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>21100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>19500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>19200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>21100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>18900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>19500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>19300</v>
-      </c>
-      <c r="N9" s="3">
-        <v>19000</v>
       </c>
       <c r="O9" s="3">
         <v>19000</v>
       </c>
       <c r="P9" s="3">
+        <v>19000</v>
+      </c>
+      <c r="Q9" s="3">
         <v>18300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>16000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>17400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E10" s="3">
         <v>56900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>57400</v>
-      </c>
-      <c r="F10" s="3">
-        <v>55400</v>
       </c>
       <c r="G10" s="3">
         <v>55400</v>
       </c>
       <c r="H10" s="3">
+        <v>55400</v>
+      </c>
+      <c r="I10" s="3">
         <v>55100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>54000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>59600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>52600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>55200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>55600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>52100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>51100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>54100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>53700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>54200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,114 +1045,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>12200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>9900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>12700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>8800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E15" s="3">
         <v>32300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>34300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>34800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>33900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>31800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>29900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>30900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>32100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>32600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>35300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>35400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>36500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>41000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>41100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>40400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>63600</v>
+      </c>
+      <c r="E17" s="3">
         <v>62200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>62000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>74400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>61100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>63500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>56100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>63600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>61700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>74000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>86500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>70800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>63200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>77400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>70900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>66700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E18" s="3">
         <v>15000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>16500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>13500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>16800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>15500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-11600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,211 +1322,223 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>4900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>15000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>24700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>8700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E21" s="3">
         <v>47300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>51700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>35400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>47500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>49000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>48200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>61100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>47000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>36400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>24800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>39200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>67900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>36800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>40100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>54000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>36500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E22" s="3">
         <v>19700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>20900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>18800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>19100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>19000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>18600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>22000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>16000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>16100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>15400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>14500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>14600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-18200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-27300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-12100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>15400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-15400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-18200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-13500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-27300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-12100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>15400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-15400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-21800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-27200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>15400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-15400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,105 +1994,111 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-4900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-15000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-24700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-8700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-21800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-27200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>15400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-15400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-21800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-27200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>15400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-15400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>84200</v>
+      </c>
+      <c r="E41" s="3">
         <v>102900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>86300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>136700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>175700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>81900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>76800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>91200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>108000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>91500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>60300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>58900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>71300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>107700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>68500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>56100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,40 +2423,43 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>68400</v>
+      </c>
+      <c r="E43" s="3">
         <v>66600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>62500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>54700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>49300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>47000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>44300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>41500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>40000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>37900</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>8</v>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,61 +2535,67 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E45" s="3">
         <v>23900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>26200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>39800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>20100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>21300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>63500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>55700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>55600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>50900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>53100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>44900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2590,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
-        <v>17200</v>
+        <v>0</v>
       </c>
       <c r="R47" s="3">
         <v>17200</v>
@@ -2598,75 +2703,81 @@
       <c r="S47" s="3">
         <v>17200</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3393600</v>
+      </c>
+      <c r="E48" s="3">
         <v>3387200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3357200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3326800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3358800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3305500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3267800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3125100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3110500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3030200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2790400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2760900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2777300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2799900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2817800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2826500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2794200</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -2678,34 +2789,37 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="L49" s="3">
         <v>1600</v>
       </c>
       <c r="M49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N49" s="3">
         <v>285100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>282600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>293700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>304400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>315600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>335600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>344400</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E52" s="3">
         <v>27200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>30300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>36200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>41100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>36600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>46800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>40100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>88700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>78900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>64000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>35400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>38200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>33200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>28500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>25500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>131800</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3605600</v>
+      </c>
+      <c r="E54" s="3">
         <v>3608000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3564200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3596500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3646100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3490200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3457100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3313900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3368500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3262500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3264100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3194500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3236900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3296700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3301600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3306100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3377200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E57" s="3">
         <v>25200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>35500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>32300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>53300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>26800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>28500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>27700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>26800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>28400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>38000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>33000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>27800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>27400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>29800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>30700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3090,40 +3224,43 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>324700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>260700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>132300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>70000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>95000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>260000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>230000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>190000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>22900</v>
+        <v>25100</v>
       </c>
       <c r="E59" s="3">
         <v>22900</v>
@@ -3135,43 +3272,46 @@
         <v>22900</v>
       </c>
       <c r="H59" s="3">
+        <v>22900</v>
+      </c>
+      <c r="I59" s="3">
         <v>22600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>22100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>20000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>11600</v>
       </c>
       <c r="P59" s="3">
         <v>11600</v>
       </c>
       <c r="Q59" s="3">
+        <v>11600</v>
+      </c>
+      <c r="R59" s="3">
         <v>11200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,61 +3363,67 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1772800</v>
+      </c>
+      <c r="E61" s="3">
         <v>1771700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1800800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1808300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1792700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1644100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1627600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1571200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1616900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1196100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1212100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1224500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1292600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1303400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1094800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1078000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1162900</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1950000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1938900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1975600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1977200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1982000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1806900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1787400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1725300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1771700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1661100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1628800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1519000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1523900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1560100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1523700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1484200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1528800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3692,7 +3860,7 @@
         <v>100</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1088600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1055700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1047200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1017000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-972000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-932900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-898500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-866200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-844800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-812000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-778900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-722200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-676200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-657900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-604100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-554500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-510600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1655500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1669000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1588600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1619300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1664000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1683300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1669600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1588700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1596800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1601400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1635300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1675500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1713100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1736500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1777900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1821900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1848400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-21800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-27200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>15400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-15400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E83" s="3">
         <v>32300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>34300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>34800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>33900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>31400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>29500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>30500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>31800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>32300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>35100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>35200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>36300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>40800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>41000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>40400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E89" s="3">
         <v>22900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>20600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>25200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>24100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>27400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>26600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>31200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>20400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>21300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>17000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>32600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>24100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>28000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>23000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>33000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-62900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-58300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-36200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-65500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-58900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-181200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-54900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-109900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-24900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-109800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-28900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-24700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-31300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-33200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,31 +5082,32 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-23100</v>
       </c>
       <c r="E96" s="3">
-        <v>-23100</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>-23100</v>
       </c>
       <c r="G96" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="H96" s="3">
         <v>-29800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-29300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-29400</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-29200</v>
       </c>
       <c r="K96" s="3">
         <v>-29200</v>
@@ -4882,17 +5116,17 @@
         <v>-29200</v>
       </c>
       <c r="M96" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="N96" s="3">
         <v>-30700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-23000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-21900</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E100" s="3">
         <v>53900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-19500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-26100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>135500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>34900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>141600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>106300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>32900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>91600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-13600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-35400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>35100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>20700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>11700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-152700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E102" s="3">
         <v>13800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-57300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-37100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>94100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-13000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-16900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>16800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>29300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-11000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-37700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>50800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>12500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>11500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-86600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>AFIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>81600</v>
+      </c>
+      <c r="E8" s="3">
         <v>79200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>77200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>78500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>74900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>74600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>76200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>72900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>79100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>71500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>75100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>74900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>71100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>70100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>72400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>69700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>71600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>57200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E9" s="3">
         <v>20800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>20300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>21100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>19500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>19200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>21100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>18900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>18900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>19900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>19300</v>
-      </c>
-      <c r="O9" s="3">
-        <v>19000</v>
       </c>
       <c r="P9" s="3">
         <v>19000</v>
       </c>
       <c r="Q9" s="3">
+        <v>19000</v>
+      </c>
+      <c r="R9" s="3">
         <v>18300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>16000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>17400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>60300</v>
+      </c>
+      <c r="E10" s="3">
         <v>58400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>56900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>57400</v>
-      </c>
-      <c r="G10" s="3">
-        <v>55400</v>
       </c>
       <c r="H10" s="3">
         <v>55400</v>
       </c>
       <c r="I10" s="3">
+        <v>55400</v>
+      </c>
+      <c r="J10" s="3">
         <v>55100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>54000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>59600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>52600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>55200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>55600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>52100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>51100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>54100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>53700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>54200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,120 +1065,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>12200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>12200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>9900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>12700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>8800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E15" s="3">
         <v>31800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>32300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>34300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>34800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>33900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>31800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>29900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>30900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>32100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>32600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>35300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>35400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>36500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>41000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>41100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>40400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>62700</v>
+      </c>
+      <c r="E17" s="3">
         <v>63600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>62200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>62000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>74400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>61100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>63500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>56100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>63600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>61700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>74000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>86500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>70800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>63200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>77400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>70900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>66700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E18" s="3">
         <v>15600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>16500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>13500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>16800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-11600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1325,220 +1359,232 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>4900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>15000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>24700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>8700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E21" s="3">
         <v>47400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>47300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>51700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>35400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>47500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>49000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>48200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>61100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>47000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>36400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>24800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>39200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>67900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>36800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>40100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>54000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>36500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E22" s="3">
         <v>19300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>19700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>20900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>18800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>19100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>19000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>18600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>22000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>18400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>17000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>16000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>16100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>15400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>14500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>14600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-18200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-27300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-12100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>15400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-19400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-15400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-18200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-13500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-27300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-12100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>15400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-19400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-15400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-21800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-27200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>15400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-19400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-15400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1997,108 +2067,114 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-4900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-15000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-24700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-8700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-21800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-27200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-12000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>15400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-19400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-15400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-21800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-27200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-12000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>15400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-19400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-15400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>137100</v>
+      </c>
+      <c r="E41" s="3">
         <v>84200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>102900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>86300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>136700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>175700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>81900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>76800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>91200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>108000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>91500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>60300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>58900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>71300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>107700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>68500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>56100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,43 +2516,46 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E43" s="3">
         <v>68400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>66600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>62500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>54700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>49300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>47000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>44300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>41500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>40000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>37900</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>8</v>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,64 +2634,70 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E45" s="3">
         <v>24600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>26200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>39800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>20100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>21300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>18400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>19400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>63500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>55700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>55600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>50900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>53100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>44900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2698,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
-        <v>17200</v>
+        <v>0</v>
       </c>
       <c r="S47" s="3">
         <v>17200</v>
@@ -2706,64 +2811,70 @@
       <c r="T47" s="3">
         <v>17200</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3393900</v>
+      </c>
+      <c r="E48" s="3">
         <v>3393600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3387200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3357200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3326800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3358800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3305500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3267800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3125100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3110500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3030200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2790400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2760900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2777300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2799900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2817800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2826500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2794200</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2792,34 +2903,37 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="M49" s="3">
         <v>1600</v>
       </c>
       <c r="N49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O49" s="3">
         <v>285100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>282600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>293700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>304400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>315600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>335600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>344400</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E52" s="3">
         <v>32200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>27200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>30300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>36200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>41100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>36600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>46800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>40100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>88700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>78900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>64000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>35400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>38200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>33200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>28500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>25500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>131800</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3667900</v>
+      </c>
+      <c r="E54" s="3">
         <v>3605600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3608000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3564200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3596500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3646100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3490200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3457100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3313900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3368500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3262500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3264100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3194500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3236900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3296700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3301600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3306100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3377200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3272,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E57" s="3">
         <v>30300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>25200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>35500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>32300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>53300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>26800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>28500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>27700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>26800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>28400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>38000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>33000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>27800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>27400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>29800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>30700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3227,35 +3361,38 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>324700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>260700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>132300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>70000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>95000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>260000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>230000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>190000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3263,7 +3400,7 @@
         <v>25100</v>
       </c>
       <c r="E59" s="3">
-        <v>22900</v>
+        <v>25100</v>
       </c>
       <c r="F59" s="3">
         <v>22900</v>
@@ -3275,43 +3412,46 @@
         <v>22900</v>
       </c>
       <c r="I59" s="3">
+        <v>22900</v>
+      </c>
+      <c r="J59" s="3">
         <v>22600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>22100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>20000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11200</v>
-      </c>
-      <c r="P59" s="3">
-        <v>11600</v>
       </c>
       <c r="Q59" s="3">
         <v>11600</v>
       </c>
       <c r="R59" s="3">
+        <v>11600</v>
+      </c>
+      <c r="S59" s="3">
         <v>11200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,64 +3506,70 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1770800</v>
+      </c>
+      <c r="E61" s="3">
         <v>1772800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1771700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1800800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1808300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1792700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1644100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1627600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1571200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1616900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1196100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1212100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1224500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1292600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1303400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1094800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1078000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1162900</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1954400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1950000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1938900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1975600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1977200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1982000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1806900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1787400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1725300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1771700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1661100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1628800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1519000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1523900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1560100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1523700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1484200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1528800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3863,7 +4031,7 @@
         <v>100</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1119200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1088600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1055700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1047200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1017000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-972000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-932900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-898500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-866200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-844800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-812000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-778900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-722200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-676200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-657900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-604100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-554500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-510600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1713400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1655500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1669000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1588600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1619300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1664000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1683300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1669600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1588700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1596800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1601400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1635300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1675500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1713100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1736500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1777900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1821900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1848400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-21800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-27200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-12000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>15400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-19400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-15400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E83" s="3">
         <v>31800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>32300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>34300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>34800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>33900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>31400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>29500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>30500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>31800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>32300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>35100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>35200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>36300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>40800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>41000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>40400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E89" s="3">
         <v>34400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>22900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>20600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>25200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>24100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>27400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>26600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>31200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>20400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>21300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>17000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>32600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>24100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>28000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>23000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>33000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-37500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-62900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-58300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-36200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-65500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-58900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-181200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-54900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-109900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-24900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-109800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-28900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-24700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-12300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-31300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-33200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5092,25 +5326,25 @@
         <v>-23100</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-23100</v>
       </c>
       <c r="F96" s="3">
-        <v>-23100</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>-23100</v>
       </c>
       <c r="H96" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="I96" s="3">
         <v>-29800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-29300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-29400</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-29200</v>
       </c>
       <c r="L96" s="3">
         <v>-29200</v>
@@ -5119,17 +5353,17 @@
         <v>-29200</v>
       </c>
       <c r="N96" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="O96" s="3">
         <v>-30700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-23000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-21900</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>53900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-19500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-26100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>135500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>34900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>141600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>106300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>32900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>91600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-13600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-35400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>35100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>20700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>11700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-152700</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-14900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>13800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-57300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-37100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>94100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-13000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-16900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>16800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>29300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-11000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-37700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>50800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>12500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>11500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-86600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>AFIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>91900</v>
+      </c>
+      <c r="E8" s="3">
         <v>81600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>79200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>77200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>78500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>74900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>74600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>76200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>72900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>79100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>71500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>75100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>74900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>71100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>70100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>72400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>69700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>71600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>57200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E9" s="3">
         <v>21300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>20800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>20300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>21100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>19500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>19200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>21100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>18900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>19900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>19300</v>
-      </c>
-      <c r="P9" s="3">
-        <v>19000</v>
       </c>
       <c r="Q9" s="3">
         <v>19000</v>
       </c>
       <c r="R9" s="3">
+        <v>19000</v>
+      </c>
+      <c r="S9" s="3">
         <v>18300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>16000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>17400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E10" s="3">
         <v>60300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>58400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>56900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>57400</v>
-      </c>
-      <c r="H10" s="3">
-        <v>55400</v>
       </c>
       <c r="I10" s="3">
         <v>55400</v>
       </c>
       <c r="J10" s="3">
+        <v>55400</v>
+      </c>
+      <c r="K10" s="3">
         <v>55100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>54000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>59600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>52600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>55200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>55600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>52100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>51100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>54100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>53700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>54200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,126 +1085,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>12200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>12200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>9900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>12700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>8800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E15" s="3">
         <v>31900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>31800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>32300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>34300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>34800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>33900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>31800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>29900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>30900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>32100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>32600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>35300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>35400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>36500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>41000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>41100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>40400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>73300</v>
+      </c>
+      <c r="E17" s="3">
         <v>62700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>63600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>62200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>62000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>74400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>61100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>63500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>56100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>63600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>61700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>74000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>86500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>70800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>63200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>77400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>70900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>66700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E18" s="3">
         <v>18900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>15000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>16500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>13500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>12700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>15500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-11600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1362,52 +1396,55 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>4900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>15000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>24700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>8700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1415,176 +1452,185 @@
         <v>50800</v>
       </c>
       <c r="E21" s="3">
+        <v>50800</v>
+      </c>
+      <c r="F21" s="3">
         <v>47400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>47300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>51700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>35400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>47500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>49000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>48200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>61100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>47000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>36400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>24800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>39200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>67900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>36800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>40100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>54000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>36500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E22" s="3">
         <v>20400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>19300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>19700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>20900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>18800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>19100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>19000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>22000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>18400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>17600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>17000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>16000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>16100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>15400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>14500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>14600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-18200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-27300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>15400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-19400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-15400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-18200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-13500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-27300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>15400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-19400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-15400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-21800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-13500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-27200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>15400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-19400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-15400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2070,111 +2140,117 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-15000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-24700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-8700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-21800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-13500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-27200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>15400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-19400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-15400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-21800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-13500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-27200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>15400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-19400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-15400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E41" s="3">
         <v>137100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>84200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>102900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>86300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>136700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>175700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>81900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>76800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>91200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>108000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>91500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>60300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>58900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>71300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>107700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>68500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>56100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,46 +2609,49 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>71400</v>
+      </c>
+      <c r="E43" s="3">
         <v>70200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>68400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>66600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>62500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>54700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>49300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>47000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>44300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>41500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>40000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>37900</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>8</v>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,67 +2733,73 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E45" s="3">
         <v>28100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>24600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>23900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>26200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>39800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>20100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>21300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>18400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>19400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>63500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>55700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>55600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>50900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>53100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>44900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>44500</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,8 +2857,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2806,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="S47" s="3">
-        <v>17200</v>
+        <v>0</v>
       </c>
       <c r="T47" s="3">
         <v>17200</v>
@@ -2814,67 +2919,73 @@
       <c r="U47" s="3">
         <v>17200</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3447000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3393900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3393600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3387200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3357200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3326800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3358800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3305500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3267800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3125100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3110500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3030200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2790400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2760900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2777300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2799900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2817800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2826500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2794200</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2906,34 +3017,37 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="N49" s="3">
         <v>1600</v>
       </c>
       <c r="O49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P49" s="3">
         <v>285100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>282600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>293700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>304400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>315600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>335600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>344400</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E52" s="3">
         <v>33700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>32200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>27200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>30300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>36200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>41100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>36600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>46800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>40100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>88700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>78900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>64000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>35400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>38200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>33200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>28500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>25500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>131800</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3695200</v>
+      </c>
+      <c r="E54" s="3">
         <v>3667900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3605600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3608000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3564200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3596500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3646100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3490200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3457100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3313900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3368500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3262500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3264100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3194500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3236900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3296700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3301600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3306100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3377200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3403,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E57" s="3">
         <v>31100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>30300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>25200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>35500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>32300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>53300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>26800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>28500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>27700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>26800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>28400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>38000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>33000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>27800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>27400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>29800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>30700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3364,46 +3498,49 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>324700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>260700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>132300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>70000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>95000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>260000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>230000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>190000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="E59" s="3">
         <v>25100</v>
       </c>
       <c r="F59" s="3">
-        <v>22900</v>
+        <v>25100</v>
       </c>
       <c r="G59" s="3">
         <v>22900</v>
@@ -3415,43 +3552,46 @@
         <v>22900</v>
       </c>
       <c r="J59" s="3">
+        <v>22900</v>
+      </c>
+      <c r="K59" s="3">
         <v>22600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>22100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>20000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>11600</v>
       </c>
       <c r="R59" s="3">
         <v>11600</v>
       </c>
       <c r="S59" s="3">
+        <v>11600</v>
+      </c>
+      <c r="T59" s="3">
         <v>11200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3509,67 +3649,73 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1773700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1770800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1772800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1771700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1800800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1808300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1792700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1644100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1627600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1571200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1616900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1196100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1212100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1224500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1292600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1303400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1094800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1078000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1162900</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1929300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1954400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1950000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1938900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1975600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1977200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1982000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1806900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1787400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1725300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1771700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1661100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1628800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1519000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1523900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1560100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1523700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1484200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1528800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4034,7 +4202,7 @@
         <v>100</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1150800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1119200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1088600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1055700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1047200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1017000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-972000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-932900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-898500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-866200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-844800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-812000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-778900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-722200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-676200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-657900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-604100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-554500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-510600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1765800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1713400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1655500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1669000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1588600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1619300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1664000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1683300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1669600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1588700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1596800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1601400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1635300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1675500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1713100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1736500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1777900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1821900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1848400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-21800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-13500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-27200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>15400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-19400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-15400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E83" s="3">
         <v>31900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>31800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>32300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>34300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>34800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>33900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>31400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>29500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>30500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>31800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>32300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>35100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>35200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>36300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>40800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>41000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>40400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E89" s="3">
         <v>30900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>34400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>22900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>20600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>25200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>24100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>27400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>26600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>31200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>20400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>21300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>17000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>32600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>24100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>28000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>23000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>33000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-89800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-32500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-37500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-62900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-58300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-36200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-65500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-58900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-181200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-54900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-109900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-24900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-109800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-28900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-24700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-12300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-31300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-33200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,37 +5550,38 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-23100</v>
+        <v>-25000</v>
       </c>
       <c r="E96" s="3">
         <v>-23100</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-23100</v>
       </c>
       <c r="G96" s="3">
-        <v>-23100</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>-23100</v>
       </c>
       <c r="I96" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="J96" s="3">
         <v>-29800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-29300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-29400</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-29200</v>
       </c>
       <c r="M96" s="3">
         <v>-29200</v>
@@ -5356,17 +5590,17 @@
         <v>-29200</v>
       </c>
       <c r="O96" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="P96" s="3">
         <v>-30700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-21900</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E100" s="3">
         <v>55000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>53900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-19500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-26100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>135500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>34900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>141600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>106300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>32900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>91600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-35400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>35100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>20700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>11700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-152700</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="E102" s="3">
         <v>53400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-14900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-57300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-37100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>94100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-13000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-16900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>16800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>29300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-37700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>50800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>12500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>11500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-86600</v>
       </c>
     </row>
